--- a/REGULAR/COMELEC/MENDOZA, ARRIES.xlsx
+++ b/REGULAR/COMELEC/MENDOZA, ARRIES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\COMELEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\COMELEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7350EA-BDEC-4D72-9F8F-5EF0BF4CE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFD9B2-5E79-45E2-B8B8-26F9DE8D6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +226,15 @@
   </si>
   <si>
     <t>6/17,20/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>12/23,26,27,28,29</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -925,7 +926,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1254,12 +1255,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1419,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>139.233</v>
+        <v>136.983</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1428,7 +1429,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>248.75</v>
+        <v>252.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2868,28 +2869,30 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39">
+        <v>1</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>44799</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -2908,15 +2911,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>44835</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -2924,15 +2931,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44866</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -2940,23 +2951,35 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="A82" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39">
+        <v>5</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2972,15 +2995,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44927</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -2988,7 +3015,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44958</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3004,7 +3033,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44986</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3020,7 +3051,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45017</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3036,7 +3069,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45047</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3052,7 +3087,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45078</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3068,7 +3105,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45108</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3084,7 +3123,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45139</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3100,7 +3141,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45170</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3116,7 +3159,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45200</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3132,7 +3177,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45231</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3148,7 +3195,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3164,7 +3213,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45292</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3772,20 +3823,52 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
